--- a/TP4/exercice3.xlsx
+++ b/TP4/exercice3.xlsx
@@ -422,9 +422,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -460,7 +462,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Type de rouleau</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -766,11 +768,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -779,7 +781,9 @@
           <t>Perte totale minimale (cm)</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr"/>
+      <c r="B1" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -787,7 +791,9 @@
           <t>Nombre de bobines utilisées</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -797,17 +803,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nombre de bobines</t>
+          <t>Nb Bobines</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Perte unitaire (cm)</t>
+          <t>Perte Unit.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Perte totale (cm)</t>
+          <t>Perte Totale</t>
         </is>
       </c>
     </row>
@@ -817,11 +823,15 @@
           <t>P1</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
       <c r="C5" t="n">
         <v>60</v>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -829,11 +839,15 @@
           <t>P2</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>30</v>
+      </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -841,11 +855,15 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
       <c r="C7" t="n">
         <v>20</v>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -853,11 +871,15 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
       <c r="C8" t="n">
         <v>40</v>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -865,11 +887,15 @@
           <t>P5</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
       <c r="C9" t="n">
         <v>20</v>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -877,11 +903,15 @@
           <t>P6</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
       <c r="C10" t="n">
         <v>40</v>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -889,11 +919,15 @@
           <t>P7</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
       <c r="C11" t="n">
         <v>20</v>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -901,11 +935,15 @@
           <t>P8</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>120</v>
+      </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -913,11 +951,15 @@
           <t>P9</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
       <c r="C13" t="n">
         <v>60</v>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -934,7 +976,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Largeur (cm)</t>
+          <t>Largeur</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -963,8 +1005,12 @@
       <c r="C18" t="n">
         <v>240</v>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>240</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -976,8 +1022,12 @@
       <c r="C19" t="n">
         <v>190</v>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>190</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -989,8 +1039,12 @@
       <c r="C20" t="n">
         <v>120</v>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>120</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1002,8 +1056,12 @@
       <c r="C21" t="n">
         <v>100</v>
       </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>100</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
